--- a/FreeTVZ.xlsx
+++ b/FreeTVZ.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\GitHub\ftvz.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A5BCEF9-B012-4308-B40F-0256FE1C28F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C6781D7D-D02B-4903-99A8-FF3BC1B91B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="1464" windowWidth="21480" windowHeight="11496"/>
+    <workbookView xWindow="264" yWindow="852" windowWidth="23304" windowHeight="11496" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FreeTVZ" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="zaltv" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="1463">
   <si>
     <t>Name</t>
   </si>
@@ -3575,13 +3577,847 @@
   </si>
   <si>
     <t>https://cms.dmpcdn.com/livetv/2017/10/18/57e474db-0dce-4fdc-93d8-bc2b57d3a685.png</t>
+  </si>
+  <si>
+    <t>AST TV 1 (18+)</t>
+  </si>
+  <si>
+    <t>https://www.ast.tv/stream/1/cellular.m3u8</t>
+  </si>
+  <si>
+    <t>AST TV 1 HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>https://www.ast.tv/stream/1/high.m3u8</t>
+  </si>
+  <si>
+    <t>AST TV 2 (18+)</t>
+  </si>
+  <si>
+    <t>https://www.ast.tv/stream/2/cellular.m3u8</t>
+  </si>
+  <si>
+    <t>AST TV 2 HD (18+)</t>
+  </si>
+  <si>
+    <t>https://www.ast.tv/stream/2/ultra.m3u8</t>
+  </si>
+  <si>
+    <t>AST TV 2 HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>https://www.ast.tv/stream/2/high.m3u8</t>
+  </si>
+  <si>
+    <t>Balkan Erotic (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93698</t>
+  </si>
+  <si>
+    <t>Bang U (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93697</t>
+  </si>
+  <si>
+    <t>Bangerz (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93696</t>
+  </si>
+  <si>
+    <t>Barely Legal (18+)</t>
+  </si>
+  <si>
+    <t>http://194.113.104.145/play/916/index.m3u8?auth=iptviptv53:iptv2019</t>
+  </si>
+  <si>
+    <t>Beate Uhse HD (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93694</t>
+  </si>
+  <si>
+    <t>Big Ass HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/bigass.m3u8</t>
+  </si>
+  <si>
+    <t>Big Dick HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/bigdick.m3u8</t>
+  </si>
+  <si>
+    <t>Big Tits HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/bigtits.m3u8</t>
+  </si>
+  <si>
+    <t>Blowjob HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/blowjob.m3u8</t>
+  </si>
+  <si>
+    <t>Blue Hustler (18+)</t>
+  </si>
+  <si>
+    <t>http://81.182.131.186:9000/stream/channelid/612480382</t>
+  </si>
+  <si>
+    <t>Brazzers Europe (18+)</t>
+  </si>
+  <si>
+    <t>http://194.113.104.145/play/908/index.m3u8?auth=iptviptv53:iptv2019</t>
+  </si>
+  <si>
+    <t>Brazzers Europe (18+) (UDP)</t>
+  </si>
+  <si>
+    <t>http://37.193.92.155:81/udp/239.1.20.64:1234</t>
+  </si>
+  <si>
+    <t>Brazzers USA HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://lucky.lts1.net:23000/live/Mandi/Mandi01/18337.ts</t>
+  </si>
+  <si>
+    <t>Candy HD (18+)</t>
+  </si>
+  <si>
+    <t>http://194.113.104.145/play/904/index.m3u8?auth=iptviptv53:iptv2019</t>
+  </si>
+  <si>
+    <t>Cuckold HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/cuckold.m3u8</t>
+  </si>
+  <si>
+    <t>Dorcel TV HD (18+)</t>
+  </si>
+  <si>
+    <t>http://194.113.104.145/play/905/index.m3u8?auth=iptviptv53:iptv2019</t>
+  </si>
+  <si>
+    <t>Dorcel XXX HD (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93688</t>
+  </si>
+  <si>
+    <t>Dream Porn HD (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93687</t>
+  </si>
+  <si>
+    <t>Dusk (18+)</t>
+  </si>
+  <si>
+    <t>http://proxtv7.dyndns.tv:25461/qOq4B53joE/BfHKDoWVR9/6407</t>
+  </si>
+  <si>
+    <t>Emanuelle (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93685</t>
+  </si>
+  <si>
+    <t>Ero XXX HD (18+)</t>
+  </si>
+  <si>
+    <t>http://full.genesis11.me:8000/live/vi1RWn5GfN/ygZKqbRWyI/69805.ts</t>
+  </si>
+  <si>
+    <t>Erotic 1 (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93659</t>
+  </si>
+  <si>
+    <t>Erotic 2 (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93658</t>
+  </si>
+  <si>
+    <t>Erotic 3 (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93657</t>
+  </si>
+  <si>
+    <t>Erotic 4 (18+)</t>
+  </si>
+  <si>
+    <t>http://149.56.25.205:25461/01923/01923/26595</t>
+  </si>
+  <si>
+    <t>Erotic 5 (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93655</t>
+  </si>
+  <si>
+    <t>Erotic 6 (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93654</t>
+  </si>
+  <si>
+    <t>Erotic 7 (18+)</t>
+  </si>
+  <si>
+    <t>http://149.56.25.205:25461/01923/01923/26598</t>
+  </si>
+  <si>
+    <t>Erotic 8 (18+)</t>
+  </si>
+  <si>
+    <t>http://149.56.25.205:25461/01923/01923/26599</t>
+  </si>
+  <si>
+    <t>Erox (18+) (UDP)</t>
+  </si>
+  <si>
+    <t>http://37.193.92.155:81/udp/239.1.20.60:1234</t>
+  </si>
+  <si>
+    <t>Erox HD (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93684</t>
+  </si>
+  <si>
+    <t>Evil Angel HD (18+)</t>
+  </si>
+  <si>
+    <t>http://whiteshark.duckdns.org:80/live/pippofinland/cinziaavellino/48376.ts</t>
+  </si>
+  <si>
+    <t>Fake Agent HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nl01.spr24.net/2142/mono.m3u8?token=amq7iK77DYAKau</t>
+  </si>
+  <si>
+    <t>Fake Taxi HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://full.genesis11.me:8000/live/vi1RWn5GfN/ygZKqbRWyI/66747.ts</t>
+  </si>
+  <si>
+    <t>Fetish HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/fetish.m3u8</t>
+  </si>
+  <si>
+    <t>Free X TV HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93679</t>
+  </si>
+  <si>
+    <t>French Lover (18+)</t>
+  </si>
+  <si>
+    <t>http://78.29.1.66/live/frenchlover/copy/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>French Lover (18+) (UDP)</t>
+  </si>
+  <si>
+    <t>http://5.59.236.161:81/udp/239.72.4.54:1234</t>
+  </si>
+  <si>
+    <t>Hardcore HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/hardcore.m3u8</t>
+  </si>
+  <si>
+    <t>Hot (18+)</t>
+  </si>
+  <si>
+    <t>http://lightningstreams.com:8080/Rodney-Pinard/zBSEuyV9wQ/56170</t>
+  </si>
+  <si>
+    <t>Hustler HD (18+)</t>
+  </si>
+  <si>
+    <t>http://78.29.1.66/live/hustler_hd/copy/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>Hustler TV (18+)</t>
+  </si>
+  <si>
+    <t>http://81.182.131.186:9000/stream/channelid/214388561</t>
+  </si>
+  <si>
+    <t>Interracial HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/interracial.m3u8</t>
+  </si>
+  <si>
+    <t>Jasmin TV (18+)</t>
+  </si>
+  <si>
+    <t>http://109.71.162.112:1935/live/sd.jasminchannel.stream/chunklist_w1696432778.m3u8</t>
+  </si>
+  <si>
+    <t>Jasmin TV HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://109.71.162.112:1935/live/hd.jasminchannel.stream/chunklist_w1793148297.m3u8</t>
+  </si>
+  <si>
+    <t>Latina HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/latina.m3u8</t>
+  </si>
+  <si>
+    <t>Leo TV (18+)</t>
+  </si>
+  <si>
+    <t>http://full.genesis11.me:8000/live/vi1RWn5GfN/ygZKqbRWyI/69804.ts</t>
+  </si>
+  <si>
+    <t>Lesbian HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/lesbian.m3u8</t>
+  </si>
+  <si>
+    <t>Meiden Van Holland (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93671</t>
+  </si>
+  <si>
+    <t>Milf HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/milf.m3u8</t>
+  </si>
+  <si>
+    <t>N/A 4K UHD (18+)</t>
+  </si>
+  <si>
+    <t>http://dns.infinitytv.xyz:8000/juarez/12345/34620</t>
+  </si>
+  <si>
+    <t>N/A HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://v3.myowntv.org/content/35636/seg-VIP-skyand/index.m3u8</t>
+  </si>
+  <si>
+    <t>Nu Art (18+)</t>
+  </si>
+  <si>
+    <t>http://78.29.1.66/live/nu_art/copy/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>O-la-la (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93667</t>
+  </si>
+  <si>
+    <t>O-la-la (18+) (UDP)</t>
+  </si>
+  <si>
+    <t>http://5.59.236.161:81/udp/239.72.4.3:1234</t>
+  </si>
+  <si>
+    <t>OldTimer (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93666</t>
+  </si>
+  <si>
+    <t>Passie XXX (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93665</t>
+  </si>
+  <si>
+    <t>Passion XXX 1 (18+)</t>
+  </si>
+  <si>
+    <t>http://ba5729d5.krasnafhg.ru/iptv/EAEWFFWBXPVVLY/878/index.m3u8</t>
+  </si>
+  <si>
+    <t>Passion XXX 2 (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93664</t>
+  </si>
+  <si>
+    <t>Penthouse Black (18+)</t>
+  </si>
+  <si>
+    <t>http://194.113.104.145/play/909/index.m3u8?auth=iptviptv53:iptv2019</t>
+  </si>
+  <si>
+    <t>Penthouse Gold HD (18+)</t>
+  </si>
+  <si>
+    <t>http://full.genesis11.me:8000/live/vi1RWn5GfN/ygZKqbRWyI/72915.ts</t>
+  </si>
+  <si>
+    <t>Penthouse Passion HD (18+)</t>
+  </si>
+  <si>
+    <t>http://ba5729d5.krasnafhg.ru/iptv/EAEWFFWBXPVVLY/1073/index.m3u8</t>
+  </si>
+  <si>
+    <t>Penthouse Quickies (18+)</t>
+  </si>
+  <si>
+    <t>http://newlook-secure.com:80/mrx_540580/728743/24147</t>
+  </si>
+  <si>
+    <t>Pink O TV (18+)</t>
+  </si>
+  <si>
+    <t>http://newlook-secure.com:80/mrx_540580/728743/22442</t>
+  </si>
+  <si>
+    <t>Playboy HD  (18+)</t>
+  </si>
+  <si>
+    <t>http://clienteworld.com:8080/9409/9409/28178</t>
+  </si>
+  <si>
+    <t>Playboy TV (18+)</t>
+  </si>
+  <si>
+    <t>http://185.220.35.228:8000/play/aooo1/index.m3u8?token=tokenforall</t>
+  </si>
+  <si>
+    <t>Pornstar HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/pornstar.m3u8</t>
+  </si>
+  <si>
+    <t>POV HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/pov.m3u8</t>
+  </si>
+  <si>
+    <t>Private TV HD (18+)</t>
+  </si>
+  <si>
+    <t>http://78.29.1.66/live/private_tv_hd/copy/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>Prive (18+)</t>
+  </si>
+  <si>
+    <t>http://tele-live.dnsup.net:23000/live/davideMI/7cGtJzh4nf/21005.ts</t>
+  </si>
+  <si>
+    <t>Red XXX (18+)</t>
+  </si>
+  <si>
+    <t>http://149.56.25.205:25461/01923/01923/26567</t>
+  </si>
+  <si>
+    <t>Redlight HD (18+)</t>
+  </si>
+  <si>
+    <t>http://ba5729d5.krasnafhg.ru/iptv/EAEWFFWBXPVVLY/242/index.m3u8</t>
+  </si>
+  <si>
+    <t>Russian HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/russian.m3u8</t>
+  </si>
+  <si>
+    <t>SCT Classic (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93640</t>
+  </si>
+  <si>
+    <t>Secret Circle (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93639</t>
+  </si>
+  <si>
+    <t>SeXation HD (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93638</t>
+  </si>
+  <si>
+    <t>Sext6senso Italia (18+)</t>
+  </si>
+  <si>
+    <t>http://149.56.25.205:25461/01923/01923/26355</t>
+  </si>
+  <si>
+    <t>SexTreme (18+)</t>
+  </si>
+  <si>
+    <t>http://cdn.ontvhdbr.co:8880/5585985007683/lu7683/21649</t>
+  </si>
+  <si>
+    <t>Sexy Hot HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://cdn.ontvhdbr.co:8880/5585985007683/lu7683/40683</t>
+  </si>
+  <si>
+    <t>Shot TV (18+)</t>
+  </si>
+  <si>
+    <t>http://78.29.1.66/live/shot_tv/copy/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>Super One (18+)</t>
+  </si>
+  <si>
+    <t>http://tele-live.dnsup.net:23000/live/davideMI/7cGtJzh4nf/21010.ts</t>
+  </si>
+  <si>
+    <t>Teen HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/teen.m3u8</t>
+  </si>
+  <si>
+    <t>Threesome HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/threesome.m3u8</t>
+  </si>
+  <si>
+    <t>Tiny 4K (Fake) (18+)</t>
+  </si>
+  <si>
+    <t>http://iptv.wtf:8080/xdgbtsmi/pgC7331wtR/8357</t>
+  </si>
+  <si>
+    <t>Venus (18+)</t>
+  </si>
+  <si>
+    <t>http://lista.digitalgroup.me:80/6907/123456/18088</t>
+  </si>
+  <si>
+    <t>Visit-X TV (18+)</t>
+  </si>
+  <si>
+    <t>http://194.116.150.47:1935/vxtv/live_360p/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>Visit-X TV HD 720 (18+)</t>
+  </si>
+  <si>
+    <t>http://194.116.150.47:1935/vxtv/live_720p/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>Vivid Red HD (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93630</t>
+  </si>
+  <si>
+    <t>Vivid TV (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93629</t>
+  </si>
+  <si>
+    <t>WTF Pass (18+)</t>
+  </si>
+  <si>
+    <t>http://212.83.191.221:25461/7/1234/63388</t>
+  </si>
+  <si>
+    <t>X Bizarre (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93628</t>
+  </si>
+  <si>
+    <t>X Bunga Bunga (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93627</t>
+  </si>
+  <si>
+    <t>X1 (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93624</t>
+  </si>
+  <si>
+    <t>X-MO (18+)</t>
+  </si>
+  <si>
+    <t>http://149.56.25.205:25461/01923/01923/26623</t>
+  </si>
+  <si>
+    <t>XXL (18+)</t>
+  </si>
+  <si>
+    <t>http://whiteshark.duckdns.org:80/live/pippofinland/cinziaavellino/48407.ts</t>
+  </si>
+  <si>
+    <t>XXX Stars HD (18+)</t>
+  </si>
+  <si>
+    <t>http://evolution-tv.dnsfor.me:25461/Giancky/5kizbnFMUW/36084</t>
+  </si>
+  <si>
+    <t>XY Max HD (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93622</t>
+  </si>
+  <si>
+    <t>XY Mix (18+)</t>
+  </si>
+  <si>
+    <t>http://primestreams.tv:826/jamesfamily/jamesfamily/93621</t>
+  </si>
+  <si>
+    <t>XY Plus HD (18+)</t>
+  </si>
+  <si>
+    <t>http://149.56.25.205:25461/01923/01923/26625</t>
+  </si>
+  <si>
+    <t>Русская Ночь (18+)</t>
+  </si>
+  <si>
+    <t>http://194.113.104.145/play/901/index.m3u8?auth=iptviptv53:iptv2019</t>
+  </si>
+  <si>
+    <t>Як (18+)</t>
+  </si>
+  <si>
+    <t>http://nl01.spr24.net/2151/mono.m3u8?token=amq7iK77DYAKau</t>
+  </si>
+  <si>
+    <t>Long term Adult IPTV &amp; ZalTV</t>
+  </si>
+  <si>
+    <t>Unsorted</t>
+  </si>
+  <si>
+    <t>http://www.mene77.ir/zt/ads-11626.mp4</t>
+  </si>
+  <si>
+    <t>Pornstar HD</t>
+  </si>
+  <si>
+    <t>Babestation 2</t>
+  </si>
+  <si>
+    <t>https://ss3.firestormmedia.tv/cellcast2/smil:encoder3.smil/manifest.m3u8</t>
+  </si>
+  <si>
+    <t>Jasmin TV</t>
+  </si>
+  <si>
+    <t>http://109.71.162.112:1935/live/sd.jasminchannel.stream/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>Jasmin TV HD</t>
+  </si>
+  <si>
+    <t>http://109.71.162.112/live/sd.jasminchannel.stream/chunklist_w233748568.m3u8</t>
+  </si>
+  <si>
+    <t>Miami TV</t>
+  </si>
+  <si>
+    <t>https://59ec5453559f0.streamlock.net/miamitv/smil:miamitvROKU/chunklist_w1195980091_b2592000.m3u8</t>
+  </si>
+  <si>
+    <t>Miami TV (Latin)</t>
+  </si>
+  <si>
+    <t>https://59ec5453559f0.streamlock.net/canal18/smil:canal18/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>Big Ass</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/bigass.m3u8</t>
+  </si>
+  <si>
+    <t>Big Ass HD</t>
+  </si>
+  <si>
+    <t>Big Dick</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/bigdick.m3u8</t>
+  </si>
+  <si>
+    <t>Big Dick HD</t>
+  </si>
+  <si>
+    <t>Big Tits HD</t>
+  </si>
+  <si>
+    <t>Blonde</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/blonde.m3u8</t>
+  </si>
+  <si>
+    <t>Blowjob HD</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/blowjob.m3u8</t>
+  </si>
+  <si>
+    <t>Brunette</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/brunette.m3u8</t>
+  </si>
+  <si>
+    <t>Compilation</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/compilation.m3u8</t>
+  </si>
+  <si>
+    <t>Cuckold</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/cuckold.m3u8</t>
+  </si>
+  <si>
+    <t>Cuckold HD</t>
+  </si>
+  <si>
+    <t>Fetish HD</t>
+  </si>
+  <si>
+    <t>Gangbang</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/gangbang.m3u8</t>
+  </si>
+  <si>
+    <t>Hardcore HD</t>
+  </si>
+  <si>
+    <t>Interracial</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/interracial.m3u8</t>
+  </si>
+  <si>
+    <t>Interracial HD</t>
+  </si>
+  <si>
+    <t>Latina</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/latina.m3u8</t>
+  </si>
+  <si>
+    <t>Latina HD</t>
+  </si>
+  <si>
+    <t>Lesbian</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/lesbian.m3u8</t>
+  </si>
+  <si>
+    <t>Lesbian HD</t>
+  </si>
+  <si>
+    <t>http://live.redtraffic.xyz/lesbian.m3u8</t>
+  </si>
+  <si>
+    <t>Live Cams</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/livecams.m3u8</t>
+  </si>
+  <si>
+    <t>Milf HD</t>
+  </si>
+  <si>
+    <t>Pornstar</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/pornstar.m3u8</t>
+  </si>
+  <si>
+    <t>POV</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/pov.m3u8</t>
+  </si>
+  <si>
+    <t>POV HD</t>
+  </si>
+  <si>
+    <t>Rough</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/rough.m3u8</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/russian.m3u8</t>
+  </si>
+  <si>
+    <t>Russian HD</t>
+  </si>
+  <si>
+    <t>Teen</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/teen.m3u8</t>
+  </si>
+  <si>
+    <t>Teen HD</t>
+  </si>
+  <si>
+    <t>Threesome</t>
+  </si>
+  <si>
+    <t>http://cdn.adultiptv.net/threesome.m3u8</t>
+  </si>
+  <si>
+    <t>Threesome HD</t>
+  </si>
+  <si>
+    <t>http://live.redtraffic.xyz/threesome.m3u8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3712,6 +4548,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4014,7 +4858,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -4057,11 +4901,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -4095,6 +4941,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -4417,8 +5264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G491"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4456,7 +5303,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2">
@@ -14746,6 +15593,2267 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J2" t="str">
+        <f>CONCATENATE(
+"\t\t\t\t{\n\t\t\t\t\t'name': '",A2,"',\n\t\t\t\t\t'image': '",$J$1,"',\n\t\t\t\t\t'url': '",C2,"',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},")</f>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'AST TV 1 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'https://www.ast.tv/stream/1/cellular.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="0">CONCATENATE(
+"\t\t\t\t{\n\t\t\t\t\t'name': '",A3,"',\n\t\t\t\t\t'image': '",$J$1,"',\n\t\t\t\t\t'url': '",C3,"',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},")</f>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'AST TV 1 HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'https://www.ast.tv/stream/1/high.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'AST TV 2 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'https://www.ast.tv/stream/2/cellular.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'AST TV 2 HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'https://www.ast.tv/stream/2/ultra.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'AST TV 2 HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'https://www.ast.tv/stream/2/high.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Balkan Erotic (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93698',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Bang U (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93697',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Bangerz (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93696',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1202</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Barely Legal (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://194.113.104.145/play/916/index.m3u8?auth=iptviptv53:iptv2019',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Beate Uhse HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93694',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Big Ass HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/bigass.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Big Dick HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/bigdick.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1210</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Big Tits HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/bigtits.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Blowjob HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/blowjob.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1214</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Blue Hustler (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://81.182.131.186:9000/stream/channelid/612480382',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Brazzers Europe (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://194.113.104.145/play/908/index.m3u8?auth=iptviptv53:iptv2019',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Brazzers Europe (18+) (UDP)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://37.193.92.155:81/udp/239.1.20.64:1234',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Brazzers USA HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://lucky.lts1.net:23000/live/Mandi/Mandi01/18337.ts',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Candy HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://194.113.104.145/play/904/index.m3u8?auth=iptviptv53:iptv2019',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Cuckold HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/cuckold.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Dorcel TV HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://194.113.104.145/play/905/index.m3u8?auth=iptviptv53:iptv2019',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Dorcel XXX HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93688',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Dream Porn HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93687',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Dusk (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://proxtv7.dyndns.tv:25461/qOq4B53joE/BfHKDoWVR9/6407',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Emanuelle (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93685',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Ero XXX HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://full.genesis11.me:8000/live/vi1RWn5GfN/ygZKqbRWyI/69805.ts',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Erotic 1 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93659',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Erotic 2 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93658',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Erotic 3 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93657',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Erotic 4 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://149.56.25.205:25461/01923/01923/26595',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Erotic 5 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93655',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Erotic 6 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93654',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Erotic 7 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://149.56.25.205:25461/01923/01923/26598',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Erotic 8 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://149.56.25.205:25461/01923/01923/26599',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Erox (18+) (UDP)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://37.193.92.155:81/udp/239.1.20.60:1234',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Erox HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93684',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Evil Angel HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://whiteshark.duckdns.org:80/live/pippofinland/cinziaavellino/48376.ts',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Fake Agent HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nl01.spr24.net/2142/mono.m3u8?token=amq7iK77DYAKau',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Fake Taxi HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://full.genesis11.me:8000/live/vi1RWn5GfN/ygZKqbRWyI/66747.ts',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Fetish HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/fetish.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Free X TV HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93679',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'French Lover (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://78.29.1.66/live/frenchlover/copy/playlist.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1270</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'French Lover (18+) (UDP)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://5.59.236.161:81/udp/239.72.4.54:1234',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Hardcore HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/hardcore.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1274</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Hot (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://lightningstreams.com:8080/Rodney-Pinard/zBSEuyV9wQ/56170',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1276</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Hustler HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://78.29.1.66/live/hustler_hd/copy/playlist.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Hustler TV (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://81.182.131.186:9000/stream/channelid/214388561',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Interracial HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/interracial.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Jasmin TV (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://109.71.162.112:1935/live/sd.jasminchannel.stream/chunklist_w1696432778.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Jasmin TV HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://109.71.162.112:1935/live/hd.jasminchannel.stream/chunklist_w1793148297.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Latina HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/latina.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Leo TV (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://full.genesis11.me:8000/live/vi1RWn5GfN/ygZKqbRWyI/69804.ts',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Lesbian HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/lesbian.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Meiden Van Holland (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93671',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Milf HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/milf.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1296</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'N/A 4K UHD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://dns.infinitytv.xyz:8000/juarez/12345/34620',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'N/A HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://v3.myowntv.org/content/35636/seg-VIP-skyand/index.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1300</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Nu Art (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://78.29.1.66/live/nu_art/copy/playlist.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'O-la-la (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93667',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'O-la-la (18+) (UDP)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://5.59.236.161:81/udp/239.72.4.3:1234',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'OldTimer (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93666',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Passie XXX (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93665',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Passion XXX 1 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://ba5729d5.krasnafhg.ru/iptv/EAEWFFWBXPVVLY/878/index.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1312</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Passion XXX 2 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93664',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Penthouse Black (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://194.113.104.145/play/909/index.m3u8?auth=iptviptv53:iptv2019',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J107" si="1">CONCATENATE(
+"\t\t\t\t{\n\t\t\t\t\t'name': '",A67,"',\n\t\t\t\t\t'image': '",$J$1,"',\n\t\t\t\t\t'url': '",C67,"',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},")</f>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Penthouse Gold HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://full.genesis11.me:8000/live/vi1RWn5GfN/ygZKqbRWyI/72915.ts',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1318</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Penthouse Passion HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://ba5729d5.krasnafhg.ru/iptv/EAEWFFWBXPVVLY/1073/index.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1320</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Penthouse Quickies (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://newlook-secure.com:80/mrx_540580/728743/24147',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Pink O TV (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://newlook-secure.com:80/mrx_540580/728743/22442',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Playboy HD  (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://clienteworld.com:8080/9409/9409/28178',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Playboy TV (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://185.220.35.228:8000/play/aooo1/index.m3u8?token=tokenforall',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1328</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Pornstar HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/pornstar.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'POV HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/pov.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Private TV HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://78.29.1.66/live/private_tv_hd/copy/playlist.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Prive (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://tele-live.dnsup.net:23000/live/davideMI/7cGtJzh4nf/21005.ts',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1336</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Red XXX (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://149.56.25.205:25461/01923/01923/26567',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Redlight HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://ba5729d5.krasnafhg.ru/iptv/EAEWFFWBXPVVLY/242/index.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Russian HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/russian.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'SCT Classic (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93640',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Secret Circle (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93639',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'SeXation HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93638',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1348</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Sext6senso Italia (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://149.56.25.205:25461/01923/01923/26355',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'SexTreme (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.ontvhdbr.co:8880/5585985007683/lu7683/21649',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1352</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Sexy Hot HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.ontvhdbr.co:8880/5585985007683/lu7683/40683',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Shot TV (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://78.29.1.66/live/shot_tv/copy/playlist.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Super One (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://tele-live.dnsup.net:23000/live/davideMI/7cGtJzh4nf/21010.ts',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1358</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Teen HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/teen.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1360</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Threesome HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/threesome.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Tiny 4K (Fake) (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://iptv.wtf:8080/xdgbtsmi/pgC7331wtR/8357',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1364</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Venus (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://lista.digitalgroup.me:80/6907/123456/18088',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1366</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Visit-X TV (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://194.116.150.47:1935/vxtv/live_360p/playlist.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1368</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Visit-X TV HD 720 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://194.116.150.47:1935/vxtv/live_720p/playlist.m3u8',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1370</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Vivid Red HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93630',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Vivid TV (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93629',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'WTF Pass (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://212.83.191.221:25461/7/1234/63388',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1376</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'X Bizarre (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93628',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1378</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'X Bunga Bunga (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93627',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1380</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'X1 (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93624',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'X-MO (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://149.56.25.205:25461/01923/01923/26623',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1384</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'XXL (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://whiteshark.duckdns.org:80/live/pippofinland/cinziaavellino/48407.ts',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1386</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'XXX Stars HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://evolution-tv.dnsfor.me:25461/Giancky/5kizbnFMUW/36084',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'XY Max HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93622',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1390</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'XY Mix (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://primestreams.tv:826/jamesfamily/jamesfamily/93621',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1392</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'XY Plus HD (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://149.56.25.205:25461/01923/01923/26625',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Русская Ночь (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://194.113.104.145/play/901/index.m3u8?auth=iptviptv53:iptv2019',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1396</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="1"/>
+        <v>\t\t\t\t{\n\t\t\t\t\t'name': 'Як (18+)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nl01.spr24.net/2151/mono.m3u8?token=amq7iK77DYAKau',\n\t\t\t\t\t'referer': 'https://player.we-play.tv'\n\t\t\t\t},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE(
+"\t\t\t\t(\n\t\t\t\t\t'name': '",A2,"',\n\t\t\t\t\t'image': '",D2,"',\n\t\t\t\t\t'url': '",C2,"',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},")</f>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Long term Adult IPTV &amp; ZalTV',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://www.mene77.ir/zt/ads-11626.mp4',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G44" si="0">CONCATENATE(
+"\t\t\t\t(\n\t\t\t\t\t'name': '",A3,"',\n\t\t\t\t\t'image': '",D3,"',\n\t\t\t\t\t'url': '",C3,"',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},")</f>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Pornstar HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/pornstar.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Babestation 2',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'https://ss3.firestormmedia.tv/cellcast2/smil:encoder3.smil/manifest.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Jasmin TV',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://109.71.162.112:1935/live/sd.jasminchannel.stream/playlist.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Jasmin TV HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://109.71.162.112/live/sd.jasminchannel.stream/chunklist_w233748568.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Miami TV',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'https://59ec5453559f0.streamlock.net/miamitv/smil:miamitvROKU/chunklist_w1195980091_b2592000.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Babestation 2',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'https://ss3.firestormmedia.tv/cellcast2/smil:encoder3.smil/manifest.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Jasmin TV',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://109.71.162.112:1935/live/sd.jasminchannel.stream/playlist.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Jasmin TV HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://109.71.162.112/live/sd.jasminchannel.stream/chunklist_w233748568.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Miami TV (Latin)',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'https://59ec5453559f0.streamlock.net/canal18/smil:canal18/playlist.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Big Ass',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/bigass.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Big Ass HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/bigass.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Big Dick',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/bigdick.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>298</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Big Dick HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/bigdick.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>298</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Big Tits HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/bigtits.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Blonde',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/blonde.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>298</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Blowjob HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/blowjob.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>298</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Brunette',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/brunette.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>298</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Compilation',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/compilation.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>298</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Cuckold',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/cuckold.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>298</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Cuckold HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/cuckold.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>298</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Fetish HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/fetish.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>298</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Gangbang',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/gangbang.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Hardcore HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/hardcore.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>298</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Interracial',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/interracial.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>298</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Interracial HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/interracial.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>298</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Latina',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/latina.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>298</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Latina HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/latina.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>298</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Lesbian',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/lesbian.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>298</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Lesbian HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://live.redtraffic.xyz/lesbian.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Live Cams',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/livecams.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Milf HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/milf.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Pornstar',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/pornstar.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>298</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Pornstar HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/pornstar.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'POV',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/pov.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'POV HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/pov.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>298</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Rough',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/rough.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>298</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Russian',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/russian.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Russian HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/russian.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>298</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Teen',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/teen.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Teen HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://nruxmzi.ojswi5dsmftgm2ldfz4hs6q.cmle.ru/teen.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>298</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Threesome',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://cdn.adultiptv.net/threesome.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>298</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>\t\t\t\t(\n\t\t\t\t\t'name': 'Threesome HD',\n\t\t\t\t\t'image': 'https://il.mahidol.ac.th/upload/img/2020-11-08-073856.jpg',\n\t\t\t\t\t'url': 'http://live.redtraffic.xyz/threesome.m3u8',\n\t\t\t\t\t'referer': 'http://photocall.tv/',\n\t\t\t\t\t'playInNatPlayer': 'true'\n\t\t\t\t},</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>